--- a/data/人才智库/50所高校.xlsx
+++ b/data/人才智库/50所高校.xlsx
@@ -73,7 +73,7 @@
     <t>清华大学</t>
   </si>
   <si>
-    <t>http://zhaopin.rsc.tsinghua.edu.cn/zpgl/user/zpxx/showRsZpglYbryZpxxList.dox?pageNo=1</t>
+    <t>http://zhaopin.rsc.tsinghua.edu.cn/zpgl/user/zpxx/goToRsZpglYbryZpxxList.dox</t>
   </si>
   <si>
     <t>武汉大学</t>
@@ -462,10 +462,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -527,6 +527,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -538,6 +546,22 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -557,21 +581,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -616,19 +625,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -655,12 +655,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -679,6 +673,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -733,18 +763,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -787,31 +805,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,6 +922,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -951,15 +975,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -971,15 +986,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1004,17 +1010,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1026,10 +1026,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1038,16 +1038,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1056,115 +1056,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1547,7 +1547,7 @@
   <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I59" sqref="I59"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3085,56 +3085,56 @@
     <mergeCell ref="I2:I3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I5" r:id="rId1" display="http://zhaopin.rsc.tsinghua.edu.cn/zpgl/user/zpxx/showRsZpglYbryZpxxList.dox?pageNo=1"/>
-    <hyperlink ref="I4" r:id="rId2" display="http://hr.pku.edu.cn/rczp/js/jxkyry1/2017-06-29/154452.htm"/>
-    <hyperlink ref="I6" r:id="rId3" display="http://hr.whu.edu.cn/"/>
-    <hyperlink ref="I7" r:id="rId4" display="http://www.hr.fudan.edu.cn/4813/list.htm"/>
-    <hyperlink ref="I8" r:id="rId5" display="http://hr.zju.edu.cn/cn/redir.php?catalog_id=10136"/>
-    <hyperlink ref="I9" r:id="rId6" display="http://join.sjtu.edu.cn/"/>
-    <hyperlink ref="I10" r:id="rId7" display="https://hr.nju.edu.cn/5979/list.htm"/>
-    <hyperlink ref="I11" r:id="rId8" display="http://www.ruc.edu.cn/resource-staff" tooltip="http://www.ruc.edu.cn/resource-staff"/>
-    <hyperlink ref="I12" r:id="rId9" display="http://rsgl.jlu.edu.cn/"/>
-    <hyperlink ref="I13" r:id="rId10" display="http://employment.hust.edu.cn/zpxx/index.jhtml"/>
-    <hyperlink ref="I14" r:id="rId11" display="http://rsc.scu.edu.cn/rsc/news.html?newsId=924"/>
-    <hyperlink ref="I15" r:id="rId12" display="http://rsc.sysu.edu.cn/Article/invitation/Professor/201702/7847.html"/>
-    <hyperlink ref="I16" r:id="rId13" display="http://rsc.nankai.edu.cn/index.html"/>
-    <hyperlink ref="I17" r:id="rId14" display="http://202.113.5.139/rs_recruit/"/>
-    <hyperlink ref="I18" r:id="rId15" display="http://employment.ustc.edu.cn/cn/"/>
-    <hyperlink ref="I19" r:id="rId16" display="http://202.117.3.40/rsc2/jobs.php"/>
-    <hyperlink ref="I20" r:id="rId17" display="http://rsc2.csu.edu.cn/zpxx.htm"/>
-    <hyperlink ref="I21" r:id="rId18" display="http://www.hit.edu.cn/226/list.htm"/>
-    <hyperlink ref="I22" r:id="rId19" display="http://hr.bnu.edu.cn/rcgzbgs/zpxx2/jxkyg/jcrc1/"/>
-    <hyperlink ref="I23" r:id="rId20" display="http://www.rsc.sdu.edu.cn/2010new2/zp.php"/>
-    <hyperlink ref="I24" r:id="rId21" display="http://jobs.xmu.edu.cn/zpqs/list.htm"/>
-    <hyperlink ref="I25" r:id="rId22" display="http://rsc.seu.edu.cn/3570/list.htm"/>
-    <hyperlink ref="I26" r:id="rId23" display="http://rsc.buaa.edu.cn/zpxg/jsg/zpxx.htm"/>
-    <hyperlink ref="I27" r:id="rId24" display="http://hr.tongji.edu.cn/"/>
-    <hyperlink ref="I28" r:id="rId25" display="http://202.118.27.233/want_ads/want_ads.asp"/>
-    <hyperlink ref="I29" r:id="rId26" display="http://rc.dlut.edu.cn/index.htm"/>
-    <hyperlink ref="I30" r:id="rId27" display="http://www2.scut.edu.cn/hr/4457/list.htm"/>
-    <hyperlink ref="I31" r:id="rId28" display="http://hr.ecnu.edu.cn/s/116/t/209/p/1/c/3533/list.htm"/>
-    <hyperlink ref="I32" r:id="rId29" display="http://www.jobs.uestc.edu.cn/jihua"/>
-    <hyperlink ref="I33" r:id="rId30" display="http://www.hnu.edu.cn/chengpinyingcai/gccrc/"/>
-    <hyperlink ref="I34" r:id="rId31" display="http://rsc.cqu.edu.cn/info/1075/1234.htm"/>
-    <hyperlink ref="I35" r:id="rId32" display="http://renshi.nwpu.edu.cn/zhaopin.htm"/>
-    <hyperlink ref="I36" r:id="rId33" display="http://rsc.cau.edu.cn/"/>
-    <hyperlink ref="I37" r:id="rId34" display="http://ldrsc.lzu.edu.cn/lzupage/B20130718091053.html"/>
-    <hyperlink ref="I38" r:id="rId35" display="http://renshichu.bit.edu.cn/zpxx/gccrczp/index.htm"/>
-    <hyperlink ref="I39" r:id="rId36" display="http://hr.ccnu.edu.cn/rczp/gccrc.htm"/>
-    <hyperlink ref="I40" r:id="rId37" display="http://rczp.swu.edu.cn/s/rczp/"/>
-    <hyperlink ref="I41" r:id="rId38" display="http://rczp.nenu.edu.cn/rczp/gccrc/index.shtml"/>
-    <hyperlink ref="I42" r:id="rId39" display="http://rsrcw.njau.edu.cn/html/rczp/1.html"/>
-    <hyperlink ref="I43" r:id="rId40" display="http://jgrsc.njtu.edu.cn/job/list.asp?BigClassName=%C8%AB%B2%BF"/>
-    <hyperlink ref="I44" r:id="rId41" display="http://rsc.swjtu.edu.cn/ShowList-309_310_311-0-1.shtml"/>
-    <hyperlink ref="I45" r:id="rId42" display="http://rsc.chd.edu.cn/list4.jsp?urltype=tree.TreeTempUrl&amp;wbtreeid=1008"/>
-    <hyperlink ref="I46" r:id="rId43" display="http://www.whut.edu.cn/2015web/rczp/gcc/"/>
-    <hyperlink ref="I47" r:id="rId44" display="http://rsc.hhu.edu.cn/s/58/t/328/p/6/list.htm"/>
-    <hyperlink ref="I48" r:id="rId45" display="http://rs.hzau.edu.cn/zhaopin/product/recruit/post.jsp?FM_SYS_ID=hznydx"/>
-    <hyperlink ref="I49" r:id="rId46" display="http://www.njnu.edu.cn/Scientific/2013-11/112659_369316.html"/>
-    <hyperlink ref="I50" r:id="rId47" display="http://www5.zzu.edu.cn/rcb/yc_zp.htm"/>
-    <hyperlink ref="I51" r:id="rId48" display="http://rczp.njust.edu.cn/"/>
-    <hyperlink ref="I52" r:id="rId49" display="http://rsc.xidian.edu.cn/html/zhaopin/"/>
-    <hyperlink ref="I53" r:id="rId50" display="http://web.ouc.edu.cn/rsc/923/list.htm"/>
+    <hyperlink ref="I4" r:id="rId1" display="http://hr.pku.edu.cn/rczp/js/jxkyry1/2017-06-29/154452.htm"/>
+    <hyperlink ref="I6" r:id="rId2" display="http://hr.whu.edu.cn/"/>
+    <hyperlink ref="I7" r:id="rId3" display="http://www.hr.fudan.edu.cn/4813/list.htm"/>
+    <hyperlink ref="I8" r:id="rId4" display="http://hr.zju.edu.cn/cn/redir.php?catalog_id=10136"/>
+    <hyperlink ref="I9" r:id="rId5" display="http://join.sjtu.edu.cn/"/>
+    <hyperlink ref="I10" r:id="rId6" display="https://hr.nju.edu.cn/5979/list.htm"/>
+    <hyperlink ref="I11" r:id="rId7" display="http://www.ruc.edu.cn/resource-staff" tooltip="http://www.ruc.edu.cn/resource-staff"/>
+    <hyperlink ref="I12" r:id="rId8" display="http://rsgl.jlu.edu.cn/"/>
+    <hyperlink ref="I13" r:id="rId9" display="http://employment.hust.edu.cn/zpxx/index.jhtml"/>
+    <hyperlink ref="I14" r:id="rId10" display="http://rsc.scu.edu.cn/rsc/news.html?newsId=924"/>
+    <hyperlink ref="I15" r:id="rId11" display="http://rsc.sysu.edu.cn/Article/invitation/Professor/201702/7847.html"/>
+    <hyperlink ref="I16" r:id="rId12" display="http://rsc.nankai.edu.cn/index.html"/>
+    <hyperlink ref="I17" r:id="rId13" display="http://202.113.5.139/rs_recruit/"/>
+    <hyperlink ref="I18" r:id="rId14" display="http://employment.ustc.edu.cn/cn/"/>
+    <hyperlink ref="I19" r:id="rId15" display="http://202.117.3.40/rsc2/jobs.php"/>
+    <hyperlink ref="I20" r:id="rId16" display="http://rsc2.csu.edu.cn/zpxx.htm"/>
+    <hyperlink ref="I21" r:id="rId17" display="http://www.hit.edu.cn/226/list.htm"/>
+    <hyperlink ref="I22" r:id="rId18" display="http://hr.bnu.edu.cn/rcgzbgs/zpxx2/jxkyg/jcrc1/"/>
+    <hyperlink ref="I23" r:id="rId19" display="http://www.rsc.sdu.edu.cn/2010new2/zp.php"/>
+    <hyperlink ref="I24" r:id="rId20" display="http://jobs.xmu.edu.cn/zpqs/list.htm"/>
+    <hyperlink ref="I25" r:id="rId21" display="http://rsc.seu.edu.cn/3570/list.htm"/>
+    <hyperlink ref="I26" r:id="rId22" display="http://rsc.buaa.edu.cn/zpxg/jsg/zpxx.htm"/>
+    <hyperlink ref="I27" r:id="rId23" display="http://hr.tongji.edu.cn/"/>
+    <hyperlink ref="I28" r:id="rId24" display="http://202.118.27.233/want_ads/want_ads.asp"/>
+    <hyperlink ref="I29" r:id="rId25" display="http://rc.dlut.edu.cn/index.htm"/>
+    <hyperlink ref="I30" r:id="rId26" display="http://www2.scut.edu.cn/hr/4457/list.htm"/>
+    <hyperlink ref="I31" r:id="rId27" display="http://hr.ecnu.edu.cn/s/116/t/209/p/1/c/3533/list.htm"/>
+    <hyperlink ref="I32" r:id="rId28" display="http://www.jobs.uestc.edu.cn/jihua"/>
+    <hyperlink ref="I33" r:id="rId29" display="http://www.hnu.edu.cn/chengpinyingcai/gccrc/"/>
+    <hyperlink ref="I34" r:id="rId30" display="http://rsc.cqu.edu.cn/info/1075/1234.htm"/>
+    <hyperlink ref="I35" r:id="rId31" display="http://renshi.nwpu.edu.cn/zhaopin.htm"/>
+    <hyperlink ref="I36" r:id="rId32" display="http://rsc.cau.edu.cn/"/>
+    <hyperlink ref="I37" r:id="rId33" display="http://ldrsc.lzu.edu.cn/lzupage/B20130718091053.html"/>
+    <hyperlink ref="I38" r:id="rId34" display="http://renshichu.bit.edu.cn/zpxx/gccrczp/index.htm"/>
+    <hyperlink ref="I39" r:id="rId35" display="http://hr.ccnu.edu.cn/rczp/gccrc.htm"/>
+    <hyperlink ref="I40" r:id="rId36" display="http://rczp.swu.edu.cn/s/rczp/"/>
+    <hyperlink ref="I41" r:id="rId37" display="http://rczp.nenu.edu.cn/rczp/gccrc/index.shtml"/>
+    <hyperlink ref="I42" r:id="rId38" display="http://rsrcw.njau.edu.cn/html/rczp/1.html"/>
+    <hyperlink ref="I43" r:id="rId39" display="http://jgrsc.njtu.edu.cn/job/list.asp?BigClassName=%C8%AB%B2%BF"/>
+    <hyperlink ref="I44" r:id="rId40" display="http://rsc.swjtu.edu.cn/ShowList-309_310_311-0-1.shtml"/>
+    <hyperlink ref="I45" r:id="rId41" display="http://rsc.chd.edu.cn/list4.jsp?urltype=tree.TreeTempUrl&amp;wbtreeid=1008"/>
+    <hyperlink ref="I46" r:id="rId42" display="http://www.whut.edu.cn/2015web/rczp/gcc/"/>
+    <hyperlink ref="I47" r:id="rId43" display="http://rsc.hhu.edu.cn/s/58/t/328/p/6/list.htm"/>
+    <hyperlink ref="I48" r:id="rId44" display="http://rs.hzau.edu.cn/zhaopin/product/recruit/post.jsp?FM_SYS_ID=hznydx"/>
+    <hyperlink ref="I49" r:id="rId45" display="http://www.njnu.edu.cn/Scientific/2013-11/112659_369316.html"/>
+    <hyperlink ref="I50" r:id="rId46" display="http://www5.zzu.edu.cn/rcb/yc_zp.htm"/>
+    <hyperlink ref="I51" r:id="rId47" display="http://rczp.njust.edu.cn/"/>
+    <hyperlink ref="I52" r:id="rId48" display="http://rsc.xidian.edu.cn/html/zhaopin/"/>
+    <hyperlink ref="I53" r:id="rId49" display="http://web.ouc.edu.cn/rsc/923/list.htm"/>
+    <hyperlink ref="I5" r:id="rId50" display="http://zhaopin.rsc.tsinghua.edu.cn/zpgl/user/zpxx/goToRsZpglYbryZpxxList.dox"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
